--- a/results/FrequencyTables/26538064_LTR-H.xlsx
+++ b/results/FrequencyTables/26538064_LTR-H.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00214132762312634</v>
       </c>
       <c r="C2">
-        <v>0.20253164556962</v>
+        <v>0.194860813704497</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.993576017130621</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.987341772151899</v>
+        <v>0.993576017130621</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.987341772151899</v>
+        <v>0.91220556745182</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.987341772151899</v>
+        <v>0.991434689507495</v>
       </c>
       <c r="K2">
-        <v>0.987341772151899</v>
+        <v>0.931477516059957</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.00214132762312634</v>
       </c>
       <c r="N2">
-        <v>0.0126582278481013</v>
+        <v>0.0406852248394004</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.00428265524625268</v>
       </c>
       <c r="P2">
-        <v>0.784810126582278</v>
+        <v>0.880085653104925</v>
       </c>
       <c r="Q2">
-        <v>0.0126582278481013</v>
+        <v>0.0107066381156317</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.00428265524625268</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.00214132762312634</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.00214132762312634</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.00214132762312634</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.00214132762312634</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0107066381156317</v>
       </c>
       <c r="X2">
-        <v>0.0126582278481013</v>
+        <v>0.00642398286937901</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,34 +539,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.860759493670886</v>
+        <v>0.914346895074946</v>
       </c>
       <c r="C3">
-        <v>0.784810126582278</v>
+        <v>0.794432548179872</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00428265524625268</v>
       </c>
       <c r="E3">
-        <v>0.974683544303797</v>
+        <v>0.933618843683084</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.00214132762312634</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.995717344753747</v>
       </c>
       <c r="H3">
-        <v>0.0126582278481013</v>
+        <v>0.00214132762312634</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.997858672376874</v>
       </c>
       <c r="J3">
-        <v>0.0126582278481013</v>
+        <v>0.00428265524625268</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00214132762312634</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -575,37 +575,37 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.962025316455696</v>
+        <v>0.93576017130621</v>
       </c>
       <c r="O3">
-        <v>0.0126582278481013</v>
+        <v>0.00428265524625268</v>
       </c>
       <c r="P3">
-        <v>0.0126582278481013</v>
+        <v>0.00642398286937901</v>
       </c>
       <c r="Q3">
-        <v>0.974683544303797</v>
+        <v>0.967880085653105</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.019271948608137</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.987341772151899</v>
+        <v>0.989293361884368</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.989293361884368</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0.991434689507495</v>
       </c>
       <c r="W3">
-        <v>0.0126582278481013</v>
+        <v>0.0214132762312634</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00214132762312634</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,10 +613,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.00214132762312634</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.00428265524625268</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -625,61 +625,61 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.00214132762312634</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.00214132762312634</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0835117773019272</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00214132762312634</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.00428265524625268</v>
       </c>
       <c r="K4">
-        <v>0.0126582278481013</v>
+        <v>0.0663811563169165</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.997858672376874</v>
       </c>
       <c r="N4">
-        <v>0.0126582278481013</v>
+        <v>0.00642398286937901</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.00428265524625268</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.00428265524625268</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0126582278481013</v>
+        <v>0.00428265524625268</v>
       </c>
       <c r="S4">
-        <v>0.0126582278481013</v>
+        <v>0.00642398286937901</v>
       </c>
       <c r="T4">
-        <v>0.0126582278481013</v>
+        <v>0.00428265524625268</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.00428265524625268</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.00428265524625268</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.987341772151899</v>
+        <v>0.985010706638116</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,25 +687,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.139240506329114</v>
+        <v>0.0792291220556745</v>
       </c>
       <c r="C5">
-        <v>0.0126582278481013</v>
+        <v>0.00642398286937901</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.00214132762312634</v>
       </c>
       <c r="E5">
-        <v>0.0253164556962025</v>
+        <v>0.0663811563169165</v>
       </c>
       <c r="F5">
-        <v>0.0126582278481013</v>
+        <v>0.00214132762312634</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.00214132762312634</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00214132762312634</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -723,37 +723,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0126582278481013</v>
+        <v>0.0171306209850107</v>
       </c>
       <c r="O5">
-        <v>0.987341772151899</v>
+        <v>0.987152034261242</v>
       </c>
       <c r="P5">
-        <v>0.20253164556962</v>
+        <v>0.107066381156317</v>
       </c>
       <c r="Q5">
-        <v>0.0126582278481013</v>
+        <v>0.0214132762312634</v>
       </c>
       <c r="R5">
-        <v>0.987341772151899</v>
+        <v>0.972162740899358</v>
       </c>
       <c r="S5">
-        <v>0.987341772151899</v>
+        <v>0.991434689507495</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.00214132762312634</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00428265524625268</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00214132762312634</v>
       </c>
       <c r="W5">
-        <v>0.987341772151899</v>
+        <v>0.967880085653105</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00642398286937901</v>
       </c>
     </row>
   </sheetData>
